--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_28_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_28_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32093.0846283672</v>
+        <v>6385908.519913931</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32093.0846283672</v>
+        <v>6385908.519913931</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>155366.5849844864</v>
+        <v>15653380.36765433</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>155366.5849844864</v>
+        <v>15653380.36765433</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1265534884.760712</v>
+        <v>41538915.88647667</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15432.32300972849</v>
+        <v>1251655.420066177</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28420.20244646986</v>
+        <v>2078798.064230822</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>41498.36242694016</v>
+        <v>2905940.708395466</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>54590.87149385333</v>
+        <v>3732326.400882657</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>67683.42843192535</v>
+        <v>4558721.619730461</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>80773.2862899121</v>
+        <v>5394102.446717964</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>93813.32313974193</v>
+        <v>6318623.798271498</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>106695.7213134791</v>
+        <v>7211775.053282601</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>119762.6710993227</v>
+        <v>7561432.391899602</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>133740.1750650931</v>
+        <v>8096148.772947663</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>147736.2044468963</v>
+        <v>8630692.951160625</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>161732.4007663017</v>
+        <v>9165270.349956421</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>175728.5970857072</v>
+        <v>9699847.74875222</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>189737.5513880235</v>
+        <v>10220618.49506572</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>203630.1025477453</v>
+        <v>10658604.91564197</v>
       </c>
     </row>
   </sheetData>
